--- a/DB設計.xlsx
+++ b/DB設計.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WangLeona\github\program\BusinessApplication\BusinessApplication\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C957A01E-3928-4F06-9ADC-0CE0AE9E6094}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FB28E66-9DDC-45E8-AC77-518D91BFC75B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{97E6F3C6-D403-439F-B3B8-E1F91F15234B}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="5" xr2:uid="{97E6F3C6-D403-439F-B3B8-E1F91F15234B}"/>
   </bookViews>
   <sheets>
     <sheet name="Product" sheetId="1" r:id="rId1"/>
     <sheet name="Material" sheetId="2" r:id="rId2"/>
     <sheet name="MaterialSource" sheetId="4" r:id="rId3"/>
     <sheet name="Inventory" sheetId="6" r:id="rId4"/>
-    <sheet name="ProductMaterial" sheetId="5" r:id="rId5"/>
+    <sheet name="Ingredient" sheetId="5" r:id="rId5"/>
     <sheet name="Supplier" sheetId="3" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="37">
   <si>
     <t>productName</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -141,10 +141,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>productCost(從ProductMaterial&amp;Material兩張表算出來)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>lowestAmount(用模型跑或寫死)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -165,7 +161,27 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>expiredDate</t>
+    <t>importDate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>expiredDate(用importDate+Material.validDay)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>product</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>material</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cost(material.unitPrice*amount)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>supplier</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -175,7 +191,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="176" formatCode="0_ "/>
-    <numFmt numFmtId="178" formatCode="yyyy\-mm\-dd;@"/>
+    <numFmt numFmtId="177" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -216,7 +232,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -226,7 +242,10 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -543,10 +562,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6EC06CD0-50FD-49C2-88EC-5CF20BCD1800}">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -554,10 +573,9 @@
     <col min="1" max="1" width="14.21875" customWidth="1"/>
     <col min="2" max="2" width="13.44140625" customWidth="1"/>
     <col min="3" max="3" width="13" customWidth="1"/>
-    <col min="4" max="4" width="49.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -567,11 +585,8 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -593,8 +608,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{104B28CC-EBA0-468A-9BF3-BAC0008225D7}">
   <dimension ref="A1:H5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -625,10 +640,10 @@
         <v>21</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
@@ -751,7 +766,7 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -762,10 +777,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>4</v>
+        <v>34</v>
       </c>
       <c r="B1" t="s">
-        <v>8</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
@@ -792,60 +807,68 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35E3C294-925C-42AA-B74A-EF1507A1652A}">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13" style="3" customWidth="1"/>
-    <col min="2" max="2" width="12.6640625" customWidth="1"/>
-    <col min="3" max="3" width="13.21875" customWidth="1"/>
-    <col min="4" max="4" width="46" customWidth="1"/>
+    <col min="1" max="1" width="11.88671875" customWidth="1"/>
+    <col min="2" max="2" width="48.5546875" style="3" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" customWidth="1"/>
+    <col min="4" max="4" width="13.21875" customWidth="1"/>
+    <col min="5" max="5" width="46" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B1" t="s">
-        <v>4</v>
-      </c>
       <c r="C1" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D1" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" s="3">
-        <v>41253</v>
-      </c>
-      <c r="B2">
-        <v>1</v>
+      <c r="E1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="4">
+        <v>45636</v>
+      </c>
+      <c r="B2" s="3">
+        <v>45656</v>
       </c>
       <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
         <v>2</v>
       </c>
-      <c r="D2">
+      <c r="E2">
         <v>60</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9099FB70-B958-44BC-81AA-A0F24483B8EA}">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -853,20 +876,24 @@
     <col min="1" max="1" width="10.88671875" customWidth="1"/>
     <col min="2" max="2" width="11.88671875" customWidth="1"/>
     <col min="3" max="3" width="10.6640625" customWidth="1"/>
+    <col min="4" max="4" width="30.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>1</v>
+        <v>33</v>
       </c>
       <c r="B1" t="s">
-        <v>4</v>
+        <v>34</v>
       </c>
       <c r="C1" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -877,7 +904,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
@@ -888,7 +915,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>1</v>
       </c>
@@ -909,8 +936,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCE1595C-6B22-4F7B-8AA7-057C5AAEF259}">
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -936,7 +963,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>15</v>

--- a/DB設計.xlsx
+++ b/DB設計.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WangLeona\github\program\BusinessApplication\BusinessApplication\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FB28E66-9DDC-45E8-AC77-518D91BFC75B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C7BC907-32A4-4D2B-B7A6-E00ADF346DDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="5" xr2:uid="{97E6F3C6-D403-439F-B3B8-E1F91F15234B}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{97E6F3C6-D403-439F-B3B8-E1F91F15234B}"/>
   </bookViews>
   <sheets>
     <sheet name="Product" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="46">
   <si>
     <t>productName</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -182,6 +182,42 @@
   </si>
   <si>
     <t>supplier</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吐司公司</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0909111222</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>漢堡公司</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0909333444</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>名稱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>哪家供應商</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一包有幾個單位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一包多少錢</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有效期限(用天當單位)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -193,7 +229,7 @@
     <numFmt numFmtId="176" formatCode="0_ "/>
     <numFmt numFmtId="177" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -208,6 +244,13 @@
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="新細明體"/>
+      <family val="2"/>
+      <charset val="136"/>
     </font>
   </fonts>
   <fills count="2">
@@ -232,7 +275,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -246,6 +289,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -606,10 +652,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{104B28CC-EBA0-468A-9BF3-BAC0008225D7}">
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -752,6 +798,25 @@
       </c>
       <c r="H5" t="s">
         <v>23</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="E11" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="E12" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -810,7 +875,7 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -868,7 +933,7 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -934,10 +999,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCE1595C-6B22-4F7B-8AA7-057C5AAEF259}">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -991,8 +1056,25 @@
         <v>19</v>
       </c>
     </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B5" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B6" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/DB設計.xlsx
+++ b/DB設計.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WangLeona\github\program\BusinessApplication\BusinessApplication\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C7BC907-32A4-4D2B-B7A6-E00ADF346DDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CD02A96-5512-430E-A2BA-8A4F9571A20A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{97E6F3C6-D403-439F-B3B8-E1F91F15234B}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="53">
   <si>
     <t>productName</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -218,6 +218,34 @@
   </si>
   <si>
     <t>有效期限(用天當單位)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>品名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>售價</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>材料</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>數量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新增材料</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>刪除材料</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>shipDay</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -608,10 +636,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6EC06CD0-50FD-49C2-88EC-5CF20BCD1800}">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -621,7 +649,7 @@
     <col min="3" max="3" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -632,7 +660,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -641,6 +669,28 @@
       </c>
       <c r="C2">
         <v>35</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C11" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="D11" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C12" t="s">
+        <v>48</v>
+      </c>
+      <c r="D12" t="s">
+        <v>49</v>
+      </c>
+      <c r="E12" t="s">
+        <v>50</v>
+      </c>
+      <c r="F12" t="s">
+        <v>51</v>
       </c>
     </row>
   </sheetData>
@@ -652,10 +702,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{104B28CC-EBA0-468A-9BF3-BAC0008225D7}">
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:I12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -666,10 +716,10 @@
     <col min="4" max="4" width="11.5546875" customWidth="1"/>
     <col min="5" max="5" width="11.109375" style="2" customWidth="1"/>
     <col min="6" max="6" width="30.21875" style="2" customWidth="1"/>
-    <col min="7" max="7" width="10.88671875" style="2" customWidth="1"/>
+    <col min="7" max="8" width="10.88671875" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -691,8 +741,11 @@
       <c r="G1" s="2" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H1" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -715,11 +768,14 @@
       <c r="G2" s="2">
         <v>365</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H2" s="2">
+        <v>3</v>
+      </c>
+      <c r="I2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -742,11 +798,14 @@
       <c r="G3" s="2">
         <v>365</v>
       </c>
-      <c r="H3" t="s">
+      <c r="H3" s="2">
+        <v>3</v>
+      </c>
+      <c r="I3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -769,11 +828,14 @@
       <c r="G4" s="2">
         <v>365</v>
       </c>
-      <c r="H4" t="s">
+      <c r="H4" s="2">
+        <v>5</v>
+      </c>
+      <c r="I4" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -796,11 +858,14 @@
       <c r="G5" s="2">
         <v>30</v>
       </c>
-      <c r="H5" t="s">
+      <c r="H5" s="2">
+        <v>3</v>
+      </c>
+      <c r="I5" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="E11" s="2" t="s">
         <v>41</v>
       </c>
@@ -808,7 +873,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="E12" s="2" t="s">
         <v>43</v>
       </c>

--- a/DB設計.xlsx
+++ b/DB設計.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WangLeona\github\program\BusinessApplication\BusinessApplication\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CD02A96-5512-430E-A2BA-8A4F9571A20A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8303D544-0567-455F-A505-CF314F1B4AAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{97E6F3C6-D403-439F-B3B8-E1F91F15234B}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="8" xr2:uid="{97E6F3C6-D403-439F-B3B8-E1F91F15234B}"/>
   </bookViews>
   <sheets>
     <sheet name="Product" sheetId="1" r:id="rId1"/>
@@ -19,6 +19,9 @@
     <sheet name="Inventory" sheetId="6" r:id="rId4"/>
     <sheet name="Ingredient" sheetId="5" r:id="rId5"/>
     <sheet name="Supplier" sheetId="3" r:id="rId6"/>
+    <sheet name="Customer" sheetId="7" r:id="rId7"/>
+    <sheet name="Order" sheetId="8" r:id="rId8"/>
+    <sheet name="OrderDetail" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="73">
   <si>
     <t>productName</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -247,6 +250,83 @@
   <si>
     <t>shipDay</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>telephone</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>custid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>orderid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>repeative</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>orderTime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>getTime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我愛補習班</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>好大辦公室</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>productid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>火腿蛋餅</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>雞塊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>薯條</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>培根蛋吐司</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>火腿蛋吐司</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吐司</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.fu-join.com/shopping/product_info.php?cPath=76&amp;products_id=462</t>
+  </si>
+  <si>
+    <t>http://www.fu-join.com/shopping/product_info.php?cPath=50&amp;products_id=2118</t>
+  </si>
+  <si>
+    <t>https://www.daybuy.tw/costco/35719/</t>
   </si>
 </sst>
 </file>
@@ -639,7 +719,7 @@
   <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -671,6 +751,61 @@
         <v>35</v>
       </c>
     </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C3">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>65</v>
+      </c>
+      <c r="C4">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>66</v>
+      </c>
+      <c r="C5">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>67</v>
+      </c>
+      <c r="C6">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>68</v>
+      </c>
+      <c r="C7">
+        <v>35</v>
+      </c>
+    </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C11" s="5" t="s">
         <v>46</v>
@@ -704,8 +839,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{104B28CC-EBA0-468A-9BF3-BAC0008225D7}">
   <dimension ref="A1:I12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -789,7 +924,7 @@
         <v>150</v>
       </c>
       <c r="E3" s="2">
-        <f t="shared" ref="E3:E5" si="0">D3/C3</f>
+        <f t="shared" ref="E3:E8" si="0">D3/C3</f>
         <v>2.7272727272727271</v>
       </c>
       <c r="F3" s="2">
@@ -863,6 +998,96 @@
       </c>
       <c r="I5" t="s">
         <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>66</v>
+      </c>
+      <c r="C6">
+        <v>20</v>
+      </c>
+      <c r="D6">
+        <v>185</v>
+      </c>
+      <c r="E6" s="2">
+        <f t="shared" si="0"/>
+        <v>9.25</v>
+      </c>
+      <c r="F6" s="2">
+        <v>40</v>
+      </c>
+      <c r="G6" s="2">
+        <v>180</v>
+      </c>
+      <c r="H6" s="2">
+        <v>3</v>
+      </c>
+      <c r="I6" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>65</v>
+      </c>
+      <c r="C7">
+        <v>50</v>
+      </c>
+      <c r="D7">
+        <v>180</v>
+      </c>
+      <c r="E7" s="2">
+        <f t="shared" si="0"/>
+        <v>3.6</v>
+      </c>
+      <c r="F7" s="2">
+        <v>100</v>
+      </c>
+      <c r="G7" s="2">
+        <v>360</v>
+      </c>
+      <c r="H7" s="2">
+        <v>3</v>
+      </c>
+      <c r="I7" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>69</v>
+      </c>
+      <c r="C8">
+        <v>25</v>
+      </c>
+      <c r="D8">
+        <v>49</v>
+      </c>
+      <c r="E8" s="2">
+        <f t="shared" si="0"/>
+        <v>1.96</v>
+      </c>
+      <c r="F8" s="2">
+        <v>50</v>
+      </c>
+      <c r="G8" s="2">
+        <v>14</v>
+      </c>
+      <c r="H8" s="2">
+        <v>3</v>
+      </c>
+      <c r="I8" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
@@ -998,7 +1223,7 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -1142,4 +1367,174 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A184F2E1-40AE-474A-B7FC-318DD5BE8332}">
+  <dimension ref="A1:C3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="14.21875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="C2">
+        <v>2333333</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>62</v>
+      </c>
+      <c r="C3">
+        <v>2444444</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2581F31-6117-4754-8C61-98BBB54B196F}">
+  <dimension ref="A1:E3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BAE44FCD-EE5D-49E7-AF6C-E825A49AC442}">
+  <dimension ref="A1:C5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="15.109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/DB設計.xlsx
+++ b/DB設計.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WangLeona\github\program\BusinessApplication\BusinessApplication\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8303D544-0567-455F-A505-CF314F1B4AAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B40F002-1467-4644-A547-DF8D09F5B93A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="8" xr2:uid="{97E6F3C6-D403-439F-B3B8-E1F91F15234B}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="1" activeTab="9" xr2:uid="{97E6F3C6-D403-439F-B3B8-E1F91F15234B}"/>
   </bookViews>
   <sheets>
     <sheet name="Product" sheetId="1" r:id="rId1"/>
@@ -22,6 +22,7 @@
     <sheet name="Customer" sheetId="7" r:id="rId7"/>
     <sheet name="Order" sheetId="8" r:id="rId8"/>
     <sheet name="OrderDetail" sheetId="9" r:id="rId9"/>
+    <sheet name="模擬數據" sheetId="10" r:id="rId10"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -42,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="86">
   <si>
     <t>productName</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -327,6 +328,58 @@
   </si>
   <si>
     <t>https://www.daybuy.tw/costco/35719/</t>
+  </si>
+  <si>
+    <t>散客</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>固定</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>三五</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>培餅5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>火吐5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>雞塊5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>二</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>火餅3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>培蛋4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>全</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>雞塊20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>薯條20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>total</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -835,6 +888,1314 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B04B57A8-7201-4D6C-8EE8-1D3A80C049A1}">
+  <dimension ref="A1:S31"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="P12" sqref="P12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="10.77734375" customWidth="1"/>
+    <col min="2" max="2" width="10.6640625" customWidth="1"/>
+    <col min="3" max="3" width="10.88671875" customWidth="1"/>
+    <col min="4" max="4" width="12.88671875" customWidth="1"/>
+    <col min="5" max="5" width="12.5546875" customWidth="1"/>
+    <col min="9" max="9" width="12.33203125" customWidth="1"/>
+    <col min="10" max="10" width="10.44140625" customWidth="1"/>
+    <col min="11" max="11" width="11" customWidth="1"/>
+    <col min="12" max="12" width="13" customWidth="1"/>
+    <col min="13" max="13" width="13.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F1" t="s">
+        <v>65</v>
+      </c>
+      <c r="G1" t="s">
+        <v>66</v>
+      </c>
+      <c r="I1" t="s">
+        <v>74</v>
+      </c>
+      <c r="J1" t="s">
+        <v>3</v>
+      </c>
+      <c r="K1" t="s">
+        <v>64</v>
+      </c>
+      <c r="L1" t="s">
+        <v>67</v>
+      </c>
+      <c r="M1" t="s">
+        <v>68</v>
+      </c>
+      <c r="N1" t="s">
+        <v>65</v>
+      </c>
+      <c r="O1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A2" s="4">
+        <v>45597</v>
+      </c>
+      <c r="B2">
+        <v>10</v>
+      </c>
+      <c r="C2">
+        <v>10</v>
+      </c>
+      <c r="D2">
+        <v>20</v>
+      </c>
+      <c r="E2">
+        <v>25</v>
+      </c>
+      <c r="F2">
+        <v>15</v>
+      </c>
+      <c r="G2">
+        <v>20</v>
+      </c>
+      <c r="I2" s="4">
+        <v>45597</v>
+      </c>
+      <c r="J2">
+        <v>5</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>5</v>
+      </c>
+      <c r="N2">
+        <v>25</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+      <c r="P2" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>76</v>
+      </c>
+      <c r="R2" t="s">
+        <v>77</v>
+      </c>
+      <c r="S2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A3" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="B3">
+        <f>B2</f>
+        <v>10</v>
+      </c>
+      <c r="C3">
+        <f t="shared" ref="C3:O3" si="0">C2</f>
+        <v>10</v>
+      </c>
+      <c r="D3">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="E3">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="F3">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="G3">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="J3">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="K3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="N3">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="O3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P3" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>80</v>
+      </c>
+      <c r="R3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A4" s="4"/>
+      <c r="I4" s="4"/>
+      <c r="P4" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>83</v>
+      </c>
+      <c r="R4" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A5" s="4">
+        <v>45600</v>
+      </c>
+      <c r="B5">
+        <v>10</v>
+      </c>
+      <c r="C5">
+        <v>5</v>
+      </c>
+      <c r="D5">
+        <v>20</v>
+      </c>
+      <c r="E5">
+        <v>25</v>
+      </c>
+      <c r="F5">
+        <v>20</v>
+      </c>
+      <c r="G5">
+        <v>15</v>
+      </c>
+      <c r="I5" s="4">
+        <v>45600</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>20</v>
+      </c>
+      <c r="O5">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A6" s="4">
+        <v>45601</v>
+      </c>
+      <c r="B6">
+        <v>15</v>
+      </c>
+      <c r="C6">
+        <v>15</v>
+      </c>
+      <c r="D6">
+        <v>25</v>
+      </c>
+      <c r="E6">
+        <v>10</v>
+      </c>
+      <c r="F6">
+        <v>25</v>
+      </c>
+      <c r="G6">
+        <v>10</v>
+      </c>
+      <c r="I6" s="4">
+        <v>45601</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>3</v>
+      </c>
+      <c r="L6">
+        <v>4</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>20</v>
+      </c>
+      <c r="O6">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A7" s="4">
+        <v>45602</v>
+      </c>
+      <c r="B7">
+        <v>15</v>
+      </c>
+      <c r="C7">
+        <v>20</v>
+      </c>
+      <c r="D7">
+        <v>10</v>
+      </c>
+      <c r="E7">
+        <v>15</v>
+      </c>
+      <c r="F7">
+        <v>15</v>
+      </c>
+      <c r="G7">
+        <v>15</v>
+      </c>
+      <c r="I7" s="4">
+        <v>45602</v>
+      </c>
+      <c r="J7">
+        <v>5</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>5</v>
+      </c>
+      <c r="N7">
+        <v>25</v>
+      </c>
+      <c r="O7">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A8" s="4">
+        <v>45603</v>
+      </c>
+      <c r="B8">
+        <v>10</v>
+      </c>
+      <c r="C8">
+        <v>5</v>
+      </c>
+      <c r="D8">
+        <v>15</v>
+      </c>
+      <c r="E8">
+        <v>10</v>
+      </c>
+      <c r="F8">
+        <v>15</v>
+      </c>
+      <c r="G8">
+        <v>20</v>
+      </c>
+      <c r="I8" s="4">
+        <v>45603</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <v>20</v>
+      </c>
+      <c r="O8">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A9" s="4">
+        <v>45604</v>
+      </c>
+      <c r="B9">
+        <v>15</v>
+      </c>
+      <c r="C9">
+        <v>15</v>
+      </c>
+      <c r="D9">
+        <v>15</v>
+      </c>
+      <c r="E9">
+        <v>15</v>
+      </c>
+      <c r="F9">
+        <v>20</v>
+      </c>
+      <c r="G9">
+        <v>15</v>
+      </c>
+      <c r="I9" s="4">
+        <v>45604</v>
+      </c>
+      <c r="J9">
+        <v>5</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>5</v>
+      </c>
+      <c r="N9">
+        <v>25</v>
+      </c>
+      <c r="O9">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A10" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="B10">
+        <f>SUM(B5:B9)</f>
+        <v>65</v>
+      </c>
+      <c r="C10">
+        <f t="shared" ref="C10:O10" si="1">SUM(C5:C9)</f>
+        <v>60</v>
+      </c>
+      <c r="D10">
+        <f t="shared" si="1"/>
+        <v>85</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="1"/>
+        <v>75</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="1"/>
+        <v>95</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="1"/>
+        <v>75</v>
+      </c>
+      <c r="J10">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="K10">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="M10">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="N10">
+        <f t="shared" si="1"/>
+        <v>110</v>
+      </c>
+      <c r="O10">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A11" s="4"/>
+      <c r="I11" s="4"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A12" s="4">
+        <v>45607</v>
+      </c>
+      <c r="B12">
+        <v>15</v>
+      </c>
+      <c r="C12">
+        <v>20</v>
+      </c>
+      <c r="D12">
+        <v>15</v>
+      </c>
+      <c r="E12">
+        <v>25</v>
+      </c>
+      <c r="F12">
+        <v>15</v>
+      </c>
+      <c r="G12">
+        <v>15</v>
+      </c>
+      <c r="I12" s="4">
+        <v>45607</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <v>20</v>
+      </c>
+      <c r="O12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A13" s="4">
+        <v>45608</v>
+      </c>
+      <c r="B13">
+        <v>20</v>
+      </c>
+      <c r="C13">
+        <v>5</v>
+      </c>
+      <c r="D13">
+        <v>15</v>
+      </c>
+      <c r="E13">
+        <v>25</v>
+      </c>
+      <c r="F13">
+        <v>25</v>
+      </c>
+      <c r="G13">
+        <v>15</v>
+      </c>
+      <c r="I13" s="4">
+        <v>45608</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>4</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <v>20</v>
+      </c>
+      <c r="O13">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A14" s="4">
+        <v>45609</v>
+      </c>
+      <c r="B14">
+        <v>5</v>
+      </c>
+      <c r="C14">
+        <v>10</v>
+      </c>
+      <c r="D14">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>10</v>
+      </c>
+      <c r="F14">
+        <v>20</v>
+      </c>
+      <c r="G14">
+        <v>20</v>
+      </c>
+      <c r="I14" s="4">
+        <v>45609</v>
+      </c>
+      <c r="J14">
+        <v>5</v>
+      </c>
+      <c r="K14">
+        <v>0</v>
+      </c>
+      <c r="L14">
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <v>5</v>
+      </c>
+      <c r="N14">
+        <v>25</v>
+      </c>
+      <c r="O14">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A15" s="4">
+        <v>45610</v>
+      </c>
+      <c r="B15">
+        <v>15</v>
+      </c>
+      <c r="C15">
+        <v>5</v>
+      </c>
+      <c r="D15">
+        <v>25</v>
+      </c>
+      <c r="E15">
+        <v>15</v>
+      </c>
+      <c r="F15">
+        <v>25</v>
+      </c>
+      <c r="G15">
+        <v>10</v>
+      </c>
+      <c r="I15" s="4">
+        <v>45610</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <v>0</v>
+      </c>
+      <c r="L15">
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <v>0</v>
+      </c>
+      <c r="N15">
+        <v>20</v>
+      </c>
+      <c r="O15">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A16" s="4">
+        <v>45611</v>
+      </c>
+      <c r="B16">
+        <v>10</v>
+      </c>
+      <c r="C16">
+        <v>15</v>
+      </c>
+      <c r="D16">
+        <v>10</v>
+      </c>
+      <c r="E16">
+        <v>15</v>
+      </c>
+      <c r="F16">
+        <v>10</v>
+      </c>
+      <c r="G16">
+        <v>10</v>
+      </c>
+      <c r="I16" s="4">
+        <v>45611</v>
+      </c>
+      <c r="J16">
+        <v>5</v>
+      </c>
+      <c r="K16">
+        <v>0</v>
+      </c>
+      <c r="L16">
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <v>5</v>
+      </c>
+      <c r="N16">
+        <v>25</v>
+      </c>
+      <c r="O16">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A17" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="B17">
+        <f>SUM(B12:B16)</f>
+        <v>65</v>
+      </c>
+      <c r="C17">
+        <f t="shared" ref="C17:O17" si="2">SUM(C12:C16)</f>
+        <v>55</v>
+      </c>
+      <c r="D17">
+        <f t="shared" si="2"/>
+        <v>85</v>
+      </c>
+      <c r="E17">
+        <f t="shared" si="2"/>
+        <v>90</v>
+      </c>
+      <c r="F17">
+        <f t="shared" si="2"/>
+        <v>95</v>
+      </c>
+      <c r="G17">
+        <f t="shared" si="2"/>
+        <v>70</v>
+      </c>
+      <c r="J17">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="K17">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="M17">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="N17">
+        <f t="shared" si="2"/>
+        <v>110</v>
+      </c>
+      <c r="O17">
+        <f t="shared" si="2"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A18" s="4"/>
+      <c r="I18" s="4"/>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A19" s="4">
+        <v>45614</v>
+      </c>
+      <c r="B19">
+        <v>5</v>
+      </c>
+      <c r="C19">
+        <v>15</v>
+      </c>
+      <c r="D19">
+        <v>20</v>
+      </c>
+      <c r="E19">
+        <v>20</v>
+      </c>
+      <c r="F19">
+        <v>10</v>
+      </c>
+      <c r="G19">
+        <v>25</v>
+      </c>
+      <c r="I19" s="4">
+        <v>45614</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+      <c r="L19">
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <v>0</v>
+      </c>
+      <c r="N19">
+        <v>20</v>
+      </c>
+      <c r="O19">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A20" s="4">
+        <v>45615</v>
+      </c>
+      <c r="B20">
+        <v>15</v>
+      </c>
+      <c r="C20">
+        <v>15</v>
+      </c>
+      <c r="D20">
+        <v>25</v>
+      </c>
+      <c r="E20">
+        <v>20</v>
+      </c>
+      <c r="F20">
+        <v>20</v>
+      </c>
+      <c r="G20">
+        <v>20</v>
+      </c>
+      <c r="I20" s="4">
+        <v>45615</v>
+      </c>
+      <c r="J20">
+        <v>0</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>4</v>
+      </c>
+      <c r="M20">
+        <v>0</v>
+      </c>
+      <c r="N20">
+        <v>20</v>
+      </c>
+      <c r="O20">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A21" s="4">
+        <v>45616</v>
+      </c>
+      <c r="B21">
+        <v>20</v>
+      </c>
+      <c r="C21">
+        <v>10</v>
+      </c>
+      <c r="D21">
+        <v>20</v>
+      </c>
+      <c r="E21">
+        <v>10</v>
+      </c>
+      <c r="F21">
+        <v>20</v>
+      </c>
+      <c r="G21">
+        <v>20</v>
+      </c>
+      <c r="I21" s="4">
+        <v>45616</v>
+      </c>
+      <c r="J21">
+        <v>5</v>
+      </c>
+      <c r="K21">
+        <v>0</v>
+      </c>
+      <c r="L21">
+        <v>0</v>
+      </c>
+      <c r="M21">
+        <v>5</v>
+      </c>
+      <c r="N21">
+        <v>25</v>
+      </c>
+      <c r="O21">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A22" s="4">
+        <v>45617</v>
+      </c>
+      <c r="B22">
+        <v>10</v>
+      </c>
+      <c r="C22">
+        <v>5</v>
+      </c>
+      <c r="D22">
+        <v>5</v>
+      </c>
+      <c r="E22">
+        <v>15</v>
+      </c>
+      <c r="F22">
+        <v>15</v>
+      </c>
+      <c r="G22">
+        <v>15</v>
+      </c>
+      <c r="I22" s="4">
+        <v>45617</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+      <c r="K22">
+        <v>0</v>
+      </c>
+      <c r="L22">
+        <v>0</v>
+      </c>
+      <c r="M22">
+        <v>0</v>
+      </c>
+      <c r="N22">
+        <v>20</v>
+      </c>
+      <c r="O22">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A23" s="4">
+        <v>45618</v>
+      </c>
+      <c r="B23">
+        <v>25</v>
+      </c>
+      <c r="C23">
+        <v>15</v>
+      </c>
+      <c r="D23">
+        <v>10</v>
+      </c>
+      <c r="E23">
+        <v>5</v>
+      </c>
+      <c r="F23">
+        <v>15</v>
+      </c>
+      <c r="G23">
+        <v>15</v>
+      </c>
+      <c r="I23" s="4">
+        <v>45618</v>
+      </c>
+      <c r="J23">
+        <v>5</v>
+      </c>
+      <c r="K23">
+        <v>0</v>
+      </c>
+      <c r="L23">
+        <v>0</v>
+      </c>
+      <c r="M23">
+        <v>5</v>
+      </c>
+      <c r="N23">
+        <v>25</v>
+      </c>
+      <c r="O23">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A24" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="B24">
+        <f>SUM(B19:B23)</f>
+        <v>75</v>
+      </c>
+      <c r="C24">
+        <f t="shared" ref="C24:O24" si="3">SUM(C19:C23)</f>
+        <v>60</v>
+      </c>
+      <c r="D24">
+        <f t="shared" si="3"/>
+        <v>80</v>
+      </c>
+      <c r="E24">
+        <f t="shared" si="3"/>
+        <v>70</v>
+      </c>
+      <c r="F24">
+        <f t="shared" si="3"/>
+        <v>80</v>
+      </c>
+      <c r="G24">
+        <f t="shared" si="3"/>
+        <v>95</v>
+      </c>
+      <c r="J24">
+        <f t="shared" si="3"/>
+        <v>10</v>
+      </c>
+      <c r="K24">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="M24">
+        <f t="shared" si="3"/>
+        <v>10</v>
+      </c>
+      <c r="N24">
+        <f t="shared" si="3"/>
+        <v>110</v>
+      </c>
+      <c r="O24">
+        <f t="shared" si="3"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A25" s="4"/>
+      <c r="I25" s="4"/>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A26" s="4">
+        <v>45621</v>
+      </c>
+      <c r="B26">
+        <v>10</v>
+      </c>
+      <c r="C26">
+        <v>5</v>
+      </c>
+      <c r="D26">
+        <v>20</v>
+      </c>
+      <c r="E26">
+        <v>15</v>
+      </c>
+      <c r="F26">
+        <v>25</v>
+      </c>
+      <c r="G26">
+        <v>10</v>
+      </c>
+      <c r="I26" s="4">
+        <v>45621</v>
+      </c>
+      <c r="J26">
+        <v>0</v>
+      </c>
+      <c r="K26">
+        <v>0</v>
+      </c>
+      <c r="L26">
+        <v>0</v>
+      </c>
+      <c r="M26">
+        <v>0</v>
+      </c>
+      <c r="N26">
+        <v>20</v>
+      </c>
+      <c r="O26">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A27" s="4">
+        <v>45622</v>
+      </c>
+      <c r="B27">
+        <v>10</v>
+      </c>
+      <c r="C27">
+        <v>5</v>
+      </c>
+      <c r="D27">
+        <v>20</v>
+      </c>
+      <c r="E27">
+        <v>25</v>
+      </c>
+      <c r="F27">
+        <v>25</v>
+      </c>
+      <c r="G27">
+        <v>15</v>
+      </c>
+      <c r="I27" s="4">
+        <v>45622</v>
+      </c>
+      <c r="J27">
+        <v>0</v>
+      </c>
+      <c r="K27">
+        <v>3</v>
+      </c>
+      <c r="L27">
+        <v>4</v>
+      </c>
+      <c r="M27">
+        <v>0</v>
+      </c>
+      <c r="N27">
+        <v>20</v>
+      </c>
+      <c r="O27">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A28" s="4">
+        <v>45623</v>
+      </c>
+      <c r="B28">
+        <v>15</v>
+      </c>
+      <c r="C28">
+        <v>20</v>
+      </c>
+      <c r="D28">
+        <v>15</v>
+      </c>
+      <c r="E28">
+        <v>20</v>
+      </c>
+      <c r="F28">
+        <v>10</v>
+      </c>
+      <c r="G28">
+        <v>15</v>
+      </c>
+      <c r="I28" s="4">
+        <v>45623</v>
+      </c>
+      <c r="J28">
+        <v>5</v>
+      </c>
+      <c r="K28">
+        <v>0</v>
+      </c>
+      <c r="L28">
+        <v>0</v>
+      </c>
+      <c r="M28">
+        <v>5</v>
+      </c>
+      <c r="N28">
+        <v>25</v>
+      </c>
+      <c r="O28">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A29" s="4">
+        <v>45624</v>
+      </c>
+      <c r="B29">
+        <v>25</v>
+      </c>
+      <c r="C29">
+        <v>15</v>
+      </c>
+      <c r="D29">
+        <v>10</v>
+      </c>
+      <c r="E29">
+        <v>20</v>
+      </c>
+      <c r="F29">
+        <v>10</v>
+      </c>
+      <c r="G29">
+        <v>25</v>
+      </c>
+      <c r="I29" s="4">
+        <v>45624</v>
+      </c>
+      <c r="J29">
+        <v>0</v>
+      </c>
+      <c r="K29">
+        <v>0</v>
+      </c>
+      <c r="L29">
+        <v>0</v>
+      </c>
+      <c r="M29">
+        <v>0</v>
+      </c>
+      <c r="N29">
+        <v>20</v>
+      </c>
+      <c r="O29">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A30" s="4">
+        <v>45625</v>
+      </c>
+      <c r="B30">
+        <v>20</v>
+      </c>
+      <c r="C30">
+        <v>10</v>
+      </c>
+      <c r="D30">
+        <v>15</v>
+      </c>
+      <c r="E30">
+        <v>5</v>
+      </c>
+      <c r="F30">
+        <v>15</v>
+      </c>
+      <c r="G30">
+        <v>20</v>
+      </c>
+      <c r="I30" s="4">
+        <v>45625</v>
+      </c>
+      <c r="J30">
+        <v>5</v>
+      </c>
+      <c r="K30">
+        <v>0</v>
+      </c>
+      <c r="L30">
+        <v>0</v>
+      </c>
+      <c r="M30">
+        <v>5</v>
+      </c>
+      <c r="N30">
+        <v>25</v>
+      </c>
+      <c r="O30">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A31" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="B31">
+        <f>SUM(B26:B30)</f>
+        <v>80</v>
+      </c>
+      <c r="C31">
+        <f t="shared" ref="C31:O31" si="4">SUM(C26:C30)</f>
+        <v>55</v>
+      </c>
+      <c r="D31">
+        <f t="shared" si="4"/>
+        <v>80</v>
+      </c>
+      <c r="E31">
+        <f t="shared" si="4"/>
+        <v>85</v>
+      </c>
+      <c r="F31">
+        <f t="shared" si="4"/>
+        <v>85</v>
+      </c>
+      <c r="G31">
+        <f t="shared" si="4"/>
+        <v>85</v>
+      </c>
+      <c r="J31">
+        <f t="shared" si="4"/>
+        <v>10</v>
+      </c>
+      <c r="K31">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="L31">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+      <c r="M31">
+        <f t="shared" si="4"/>
+        <v>10</v>
+      </c>
+      <c r="N31">
+        <f t="shared" si="4"/>
+        <v>110</v>
+      </c>
+      <c r="O31">
+        <f t="shared" si="4"/>
+        <v>100</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{104B28CC-EBA0-468A-9BF3-BAC0008225D7}">
   <dimension ref="A1:I12"/>
@@ -1481,7 +2842,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BAE44FCD-EE5D-49E7-AF6C-E825A49AC442}">
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>

--- a/DB設計.xlsx
+++ b/DB設計.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WangLeona\github\program\BusinessApplication\BusinessApplication\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B40F002-1467-4644-A547-DF8D09F5B93A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5315AD4-25A5-4395-BA01-0AA50FD96339}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="1" activeTab="9" xr2:uid="{97E6F3C6-D403-439F-B3B8-E1F91F15234B}"/>
+    <workbookView xWindow="5400" yWindow="3396" windowWidth="9264" windowHeight="8964" firstSheet="1" activeTab="9" xr2:uid="{97E6F3C6-D403-439F-B3B8-E1F91F15234B}"/>
   </bookViews>
   <sheets>
     <sheet name="Product" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="98">
   <si>
     <t>productName</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -379,6 +379,54 @@
   </si>
   <si>
     <t>total</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有錢小公司</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王太太</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>火餅1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>培餅1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>培蛋2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>雞塊4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一四</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>李先生</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>火吐1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>薯條1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>雞塊1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一三</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -890,10 +938,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B04B57A8-7201-4D6C-8EE8-1D3A80C049A1}">
-  <dimension ref="A1:S31"/>
+  <dimension ref="A1:W31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P12" sqref="P12"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -901,16 +949,18 @@
     <col min="1" max="1" width="10.77734375" customWidth="1"/>
     <col min="2" max="2" width="10.6640625" customWidth="1"/>
     <col min="3" max="3" width="10.88671875" customWidth="1"/>
-    <col min="4" max="4" width="12.88671875" customWidth="1"/>
-    <col min="5" max="5" width="12.5546875" customWidth="1"/>
-    <col min="9" max="9" width="12.33203125" customWidth="1"/>
-    <col min="10" max="10" width="10.44140625" customWidth="1"/>
-    <col min="11" max="11" width="11" customWidth="1"/>
-    <col min="12" max="12" width="13" customWidth="1"/>
-    <col min="13" max="13" width="13.33203125" customWidth="1"/>
+    <col min="6" max="6" width="12.88671875" customWidth="1"/>
+    <col min="7" max="7" width="12.5546875" customWidth="1"/>
+    <col min="11" max="11" width="12.33203125" customWidth="1"/>
+    <col min="12" max="12" width="10.44140625" customWidth="1"/>
+    <col min="13" max="13" width="11" customWidth="1"/>
+    <col min="14" max="14" width="13" customWidth="1"/>
+    <col min="15" max="15" width="13.33203125" customWidth="1"/>
+    <col min="18" max="18" width="15.5546875" customWidth="1"/>
+    <col min="19" max="19" width="8.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>73</v>
       </c>
@@ -921,40 +971,40 @@
         <v>64</v>
       </c>
       <c r="D1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E1" t="s">
+        <v>66</v>
+      </c>
+      <c r="F1" t="s">
         <v>67</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>68</v>
       </c>
-      <c r="F1" t="s">
+      <c r="K1" t="s">
+        <v>74</v>
+      </c>
+      <c r="L1" t="s">
+        <v>3</v>
+      </c>
+      <c r="M1" t="s">
+        <v>64</v>
+      </c>
+      <c r="N1" t="s">
+        <v>67</v>
+      </c>
+      <c r="O1" t="s">
+        <v>68</v>
+      </c>
+      <c r="P1" t="s">
         <v>65</v>
       </c>
-      <c r="G1" t="s">
+      <c r="Q1" t="s">
         <v>66</v>
       </c>
-      <c r="I1" t="s">
-        <v>74</v>
-      </c>
-      <c r="J1" t="s">
-        <v>3</v>
-      </c>
-      <c r="K1" t="s">
-        <v>64</v>
-      </c>
-      <c r="L1" t="s">
-        <v>67</v>
-      </c>
-      <c r="M1" t="s">
-        <v>68</v>
-      </c>
-      <c r="N1" t="s">
-        <v>65</v>
-      </c>
-      <c r="O1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A2" s="4">
         <v>45597</v>
       </c>
@@ -965,52 +1015,55 @@
         <v>10</v>
       </c>
       <c r="D2">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="E2">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="F2">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="G2">
-        <v>20</v>
-      </c>
-      <c r="I2" s="4">
+        <v>25</v>
+      </c>
+      <c r="K2" s="4">
         <v>45597</v>
       </c>
-      <c r="J2">
-        <v>5</v>
-      </c>
-      <c r="K2">
-        <v>0</v>
-      </c>
       <c r="L2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="M2">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>0</v>
-      </c>
-      <c r="P2" t="s">
+        <v>5</v>
+      </c>
+      <c r="P2">
+        <v>25</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+      <c r="R2" t="s">
+        <v>86</v>
+      </c>
+      <c r="S2" t="s">
         <v>75</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="T2" t="s">
         <v>76</v>
       </c>
-      <c r="R2" t="s">
+      <c r="U2" t="s">
         <v>77</v>
       </c>
-      <c r="S2" t="s">
+      <c r="V2" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>85</v>
       </c>
@@ -1019,73 +1072,79 @@
         <v>10</v>
       </c>
       <c r="C3">
-        <f t="shared" ref="C3:O3" si="0">C2</f>
+        <f t="shared" ref="C3:Q3" si="0">C2</f>
         <v>10</v>
       </c>
       <c r="D3">
-        <f t="shared" si="0"/>
-        <v>20</v>
+        <f t="shared" ref="D3:E3" si="1">D2</f>
+        <v>15</v>
       </c>
       <c r="E3">
-        <f t="shared" si="0"/>
-        <v>25</v>
+        <f t="shared" si="1"/>
+        <v>20</v>
       </c>
       <c r="F3">
         <f t="shared" si="0"/>
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="G3">
         <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-      <c r="J3">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="K3">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="L3">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="M3">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="N3">
         <f t="shared" si="0"/>
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="O3">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="P3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P3">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="Q3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R3" t="s">
+        <v>62</v>
+      </c>
+      <c r="S3" t="s">
         <v>79</v>
       </c>
-      <c r="Q3" t="s">
+      <c r="T3" t="s">
         <v>80</v>
       </c>
-      <c r="R3" t="s">
+      <c r="U3" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A4" s="4"/>
-      <c r="I4" s="4"/>
-      <c r="P4" t="s">
+      <c r="K4" s="4"/>
+      <c r="R4" t="s">
+        <v>61</v>
+      </c>
+      <c r="S4" t="s">
         <v>82</v>
       </c>
-      <c r="Q4" t="s">
+      <c r="T4" t="s">
         <v>83</v>
       </c>
-      <c r="R4" t="s">
+      <c r="U4" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A5" s="4">
         <v>45600</v>
       </c>
@@ -1099,23 +1158,17 @@
         <v>20</v>
       </c>
       <c r="E5">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="F5">
         <v>20</v>
       </c>
       <c r="G5">
-        <v>15</v>
-      </c>
-      <c r="I5" s="4">
+        <v>25</v>
+      </c>
+      <c r="K5" s="4">
         <v>45600</v>
       </c>
-      <c r="J5">
-        <v>0</v>
-      </c>
-      <c r="K5">
-        <v>0</v>
-      </c>
       <c r="L5">
         <v>0</v>
       </c>
@@ -1123,13 +1176,37 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>20</v>
+      </c>
+      <c r="Q5">
+        <v>20</v>
+      </c>
+      <c r="R5" t="s">
+        <v>87</v>
+      </c>
+      <c r="S5" t="s">
+        <v>92</v>
+      </c>
+      <c r="T5" t="s">
+        <v>88</v>
+      </c>
+      <c r="U5" t="s">
+        <v>89</v>
+      </c>
+      <c r="V5" t="s">
+        <v>90</v>
+      </c>
+      <c r="W5" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A6" s="4">
         <v>45601</v>
       </c>
@@ -1151,29 +1228,44 @@
       <c r="G6">
         <v>10</v>
       </c>
-      <c r="I6" s="4">
+      <c r="K6" s="4">
         <v>45601</v>
       </c>
-      <c r="J6">
-        <v>0</v>
-      </c>
-      <c r="K6">
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6">
         <v>3</v>
       </c>
-      <c r="L6">
+      <c r="N6">
         <v>4</v>
       </c>
-      <c r="M6">
-        <v>0</v>
-      </c>
-      <c r="N6">
-        <v>20</v>
-      </c>
       <c r="O6">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <v>20</v>
+      </c>
+      <c r="Q6">
+        <v>20</v>
+      </c>
+      <c r="R6" t="s">
+        <v>93</v>
+      </c>
+      <c r="S6" t="s">
+        <v>97</v>
+      </c>
+      <c r="T6" t="s">
+        <v>94</v>
+      </c>
+      <c r="U6" t="s">
+        <v>95</v>
+      </c>
+      <c r="V6" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A7" s="4">
         <v>45602</v>
       </c>
@@ -1184,40 +1276,40 @@
         <v>20</v>
       </c>
       <c r="D7">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E7">
         <v>15</v>
       </c>
       <c r="F7">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G7">
         <v>15</v>
       </c>
-      <c r="I7" s="4">
+      <c r="K7" s="4">
         <v>45602</v>
       </c>
-      <c r="J7">
-        <v>5</v>
-      </c>
-      <c r="K7">
-        <v>0</v>
-      </c>
       <c r="L7">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="M7">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="N7">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="O7">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+      <c r="P7">
+        <v>25</v>
+      </c>
+      <c r="Q7">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A8" s="4">
         <v>45603</v>
       </c>
@@ -1231,23 +1323,17 @@
         <v>15</v>
       </c>
       <c r="E8">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="F8">
         <v>15</v>
       </c>
       <c r="G8">
-        <v>20</v>
-      </c>
-      <c r="I8" s="4">
+        <v>10</v>
+      </c>
+      <c r="K8" s="4">
         <v>45603</v>
       </c>
-      <c r="J8">
-        <v>0</v>
-      </c>
-      <c r="K8">
-        <v>0</v>
-      </c>
       <c r="L8">
         <v>0</v>
       </c>
@@ -1255,13 +1341,19 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="O8">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="P8">
+        <v>20</v>
+      </c>
+      <c r="Q8">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A9" s="4">
         <v>45604</v>
       </c>
@@ -1272,40 +1364,40 @@
         <v>15</v>
       </c>
       <c r="D9">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="E9">
         <v>15</v>
       </c>
       <c r="F9">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="G9">
         <v>15</v>
       </c>
-      <c r="I9" s="4">
+      <c r="K9" s="4">
         <v>45604</v>
       </c>
-      <c r="J9">
-        <v>5</v>
-      </c>
-      <c r="K9">
-        <v>0</v>
-      </c>
       <c r="L9">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="M9">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="N9">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="O9">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+      <c r="P9">
+        <v>25</v>
+      </c>
+      <c r="Q9">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
         <v>85</v>
       </c>
@@ -1314,55 +1406,55 @@
         <v>65</v>
       </c>
       <c r="C10">
-        <f t="shared" ref="C10:O10" si="1">SUM(C5:C9)</f>
+        <f t="shared" ref="C10:Q10" si="2">SUM(C5:C9)</f>
         <v>60</v>
       </c>
       <c r="D10">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="D10:E10" si="3">SUM(D5:D9)</f>
+        <v>95</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="3"/>
+        <v>75</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="2"/>
         <v>85</v>
       </c>
-      <c r="E10">
-        <f t="shared" si="1"/>
+      <c r="G10">
+        <f t="shared" si="2"/>
         <v>75</v>
       </c>
-      <c r="F10">
-        <f t="shared" si="1"/>
-        <v>95</v>
-      </c>
-      <c r="G10">
-        <f t="shared" si="1"/>
-        <v>75</v>
-      </c>
-      <c r="J10">
-        <f t="shared" si="1"/>
-        <v>10</v>
-      </c>
-      <c r="K10">
-        <f t="shared" si="1"/>
+      <c r="L10">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="M10">
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
-      <c r="L10">
-        <f t="shared" si="1"/>
+      <c r="N10">
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
-      <c r="M10">
-        <f t="shared" si="1"/>
-        <v>10</v>
-      </c>
-      <c r="N10">
-        <f t="shared" si="1"/>
+      <c r="O10">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="P10">
+        <f t="shared" si="2"/>
         <v>110</v>
       </c>
-      <c r="O10">
-        <f t="shared" si="1"/>
+      <c r="Q10">
+        <f t="shared" si="2"/>
         <v>100</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A11" s="4"/>
-      <c r="I11" s="4"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="K11" s="4"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A12" s="4">
         <v>45607</v>
       </c>
@@ -1376,23 +1468,17 @@
         <v>15</v>
       </c>
       <c r="E12">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="F12">
         <v>15</v>
       </c>
       <c r="G12">
-        <v>15</v>
-      </c>
-      <c r="I12" s="4">
+        <v>25</v>
+      </c>
+      <c r="K12" s="4">
         <v>45607</v>
       </c>
-      <c r="J12">
-        <v>0</v>
-      </c>
-      <c r="K12">
-        <v>0</v>
-      </c>
       <c r="L12">
         <v>0</v>
       </c>
@@ -1400,13 +1486,19 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="O12">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="P12">
+        <v>20</v>
+      </c>
+      <c r="Q12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A13" s="4">
         <v>45608</v>
       </c>
@@ -1417,40 +1509,40 @@
         <v>5</v>
       </c>
       <c r="D13">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="E13">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="F13">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="G13">
-        <v>15</v>
-      </c>
-      <c r="I13" s="4">
+        <v>25</v>
+      </c>
+      <c r="K13" s="4">
         <v>45608</v>
       </c>
-      <c r="J13">
-        <v>0</v>
-      </c>
-      <c r="K13">
+      <c r="L13">
+        <v>0</v>
+      </c>
+      <c r="M13">
         <v>3</v>
       </c>
-      <c r="L13">
+      <c r="N13">
         <v>4</v>
       </c>
-      <c r="M13">
-        <v>0</v>
-      </c>
-      <c r="N13">
-        <v>20</v>
-      </c>
       <c r="O13">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="P13">
+        <v>20</v>
+      </c>
+      <c r="Q13">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A14" s="4">
         <v>45609</v>
       </c>
@@ -1464,37 +1556,37 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="F14">
         <v>20</v>
       </c>
       <c r="G14">
-        <v>20</v>
-      </c>
-      <c r="I14" s="4">
+        <v>10</v>
+      </c>
+      <c r="K14" s="4">
         <v>45609</v>
       </c>
-      <c r="J14">
-        <v>5</v>
-      </c>
-      <c r="K14">
-        <v>0</v>
-      </c>
       <c r="L14">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="M14">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="N14">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="O14">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+      <c r="P14">
+        <v>25</v>
+      </c>
+      <c r="Q14">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A15" s="4">
         <v>45610</v>
       </c>
@@ -1508,23 +1600,17 @@
         <v>25</v>
       </c>
       <c r="E15">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="F15">
         <v>25</v>
       </c>
       <c r="G15">
-        <v>10</v>
-      </c>
-      <c r="I15" s="4">
+        <v>15</v>
+      </c>
+      <c r="K15" s="4">
         <v>45610</v>
       </c>
-      <c r="J15">
-        <v>0</v>
-      </c>
-      <c r="K15">
-        <v>0</v>
-      </c>
       <c r="L15">
         <v>0</v>
       </c>
@@ -1532,13 +1618,19 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="O15">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="P15">
+        <v>20</v>
+      </c>
+      <c r="Q15">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A16" s="4">
         <v>45611</v>
       </c>
@@ -1552,37 +1644,37 @@
         <v>10</v>
       </c>
       <c r="E16">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="F16">
         <v>10</v>
       </c>
       <c r="G16">
-        <v>10</v>
-      </c>
-      <c r="I16" s="4">
+        <v>15</v>
+      </c>
+      <c r="K16" s="4">
         <v>45611</v>
       </c>
-      <c r="J16">
-        <v>5</v>
-      </c>
-      <c r="K16">
-        <v>0</v>
-      </c>
       <c r="L16">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="M16">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="N16">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="O16">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+      <c r="P16">
+        <v>25</v>
+      </c>
+      <c r="Q16">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
         <v>85</v>
       </c>
@@ -1591,55 +1683,55 @@
         <v>65</v>
       </c>
       <c r="C17">
-        <f t="shared" ref="C17:O17" si="2">SUM(C12:C16)</f>
+        <f t="shared" ref="C17:Q17" si="4">SUM(C12:C16)</f>
         <v>55</v>
       </c>
       <c r="D17">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="D17:E17" si="5">SUM(D12:D16)</f>
+        <v>95</v>
+      </c>
+      <c r="E17">
+        <f t="shared" si="5"/>
+        <v>70</v>
+      </c>
+      <c r="F17">
+        <f t="shared" si="4"/>
         <v>85</v>
       </c>
-      <c r="E17">
-        <f t="shared" si="2"/>
+      <c r="G17">
+        <f t="shared" si="4"/>
         <v>90</v>
       </c>
-      <c r="F17">
-        <f t="shared" si="2"/>
-        <v>95</v>
-      </c>
-      <c r="G17">
-        <f t="shared" si="2"/>
-        <v>70</v>
-      </c>
-      <c r="J17">
-        <f t="shared" si="2"/>
-        <v>10</v>
-      </c>
-      <c r="K17">
-        <f t="shared" si="2"/>
+      <c r="L17">
+        <f t="shared" si="4"/>
+        <v>10</v>
+      </c>
+      <c r="M17">
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
-      <c r="L17">
-        <f t="shared" si="2"/>
+      <c r="N17">
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
-      <c r="M17">
-        <f t="shared" si="2"/>
-        <v>10</v>
-      </c>
-      <c r="N17">
-        <f t="shared" si="2"/>
+      <c r="O17">
+        <f t="shared" si="4"/>
+        <v>10</v>
+      </c>
+      <c r="P17">
+        <f t="shared" si="4"/>
         <v>110</v>
       </c>
-      <c r="O17">
-        <f t="shared" si="2"/>
+      <c r="Q17">
+        <f t="shared" si="4"/>
         <v>100</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="4"/>
-      <c r="I18" s="4"/>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="K18" s="4"/>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="4">
         <v>45614</v>
       </c>
@@ -1650,26 +1742,20 @@
         <v>15</v>
       </c>
       <c r="D19">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E19">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="F19">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G19">
-        <v>25</v>
-      </c>
-      <c r="I19" s="4">
+        <v>20</v>
+      </c>
+      <c r="K19" s="4">
         <v>45614</v>
       </c>
-      <c r="J19">
-        <v>0</v>
-      </c>
-      <c r="K19">
-        <v>0</v>
-      </c>
       <c r="L19">
         <v>0</v>
       </c>
@@ -1677,13 +1763,19 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="O19">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="P19">
+        <v>20</v>
+      </c>
+      <c r="Q19">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="4">
         <v>45615</v>
       </c>
@@ -1694,40 +1786,40 @@
         <v>15</v>
       </c>
       <c r="D20">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E20">
         <v>20</v>
       </c>
       <c r="F20">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="G20">
         <v>20</v>
       </c>
-      <c r="I20" s="4">
+      <c r="K20" s="4">
         <v>45615</v>
       </c>
-      <c r="J20">
-        <v>0</v>
-      </c>
-      <c r="K20">
+      <c r="L20">
+        <v>0</v>
+      </c>
+      <c r="M20">
         <v>3</v>
       </c>
-      <c r="L20">
+      <c r="N20">
         <v>4</v>
       </c>
-      <c r="M20">
-        <v>0</v>
-      </c>
-      <c r="N20">
-        <v>20</v>
-      </c>
       <c r="O20">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="P20">
+        <v>20</v>
+      </c>
+      <c r="Q20">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21" s="4">
         <v>45616</v>
       </c>
@@ -1741,37 +1833,37 @@
         <v>20</v>
       </c>
       <c r="E21">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="F21">
         <v>20</v>
       </c>
       <c r="G21">
-        <v>20</v>
-      </c>
-      <c r="I21" s="4">
+        <v>10</v>
+      </c>
+      <c r="K21" s="4">
         <v>45616</v>
       </c>
-      <c r="J21">
-        <v>5</v>
-      </c>
-      <c r="K21">
-        <v>0</v>
-      </c>
       <c r="L21">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="M21">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="N21">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="O21">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+      <c r="P21">
+        <v>25</v>
+      </c>
+      <c r="Q21">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="4">
         <v>45617</v>
       </c>
@@ -1782,26 +1874,20 @@
         <v>5</v>
       </c>
       <c r="D22">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="E22">
         <v>15</v>
       </c>
       <c r="F22">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="G22">
         <v>15</v>
       </c>
-      <c r="I22" s="4">
+      <c r="K22" s="4">
         <v>45617</v>
       </c>
-      <c r="J22">
-        <v>0</v>
-      </c>
-      <c r="K22">
-        <v>0</v>
-      </c>
       <c r="L22">
         <v>0</v>
       </c>
@@ -1809,13 +1895,19 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="O22">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="P22">
+        <v>20</v>
+      </c>
+      <c r="Q22">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" s="4">
         <v>45618</v>
       </c>
@@ -1826,40 +1918,40 @@
         <v>15</v>
       </c>
       <c r="D23">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E23">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="F23">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G23">
-        <v>15</v>
-      </c>
-      <c r="I23" s="4">
+        <v>5</v>
+      </c>
+      <c r="K23" s="4">
         <v>45618</v>
       </c>
-      <c r="J23">
-        <v>5</v>
-      </c>
-      <c r="K23">
-        <v>0</v>
-      </c>
       <c r="L23">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="M23">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="N23">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="O23">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+      <c r="P23">
+        <v>25</v>
+      </c>
+      <c r="Q23">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="4" t="s">
         <v>85</v>
       </c>
@@ -1868,55 +1960,55 @@
         <v>75</v>
       </c>
       <c r="C24">
-        <f t="shared" ref="C24:O24" si="3">SUM(C19:C23)</f>
+        <f t="shared" ref="C24:Q24" si="6">SUM(C19:C23)</f>
         <v>60</v>
       </c>
       <c r="D24">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="D24:E24" si="7">SUM(D19:D23)</f>
         <v>80</v>
       </c>
       <c r="E24">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
+        <v>95</v>
+      </c>
+      <c r="F24">
+        <f t="shared" si="6"/>
+        <v>80</v>
+      </c>
+      <c r="G24">
+        <f t="shared" si="6"/>
         <v>70</v>
       </c>
-      <c r="F24">
-        <f t="shared" si="3"/>
-        <v>80</v>
-      </c>
-      <c r="G24">
-        <f t="shared" si="3"/>
-        <v>95</v>
-      </c>
-      <c r="J24">
-        <f t="shared" si="3"/>
-        <v>10</v>
-      </c>
-      <c r="K24">
-        <f t="shared" si="3"/>
+      <c r="L24">
+        <f t="shared" si="6"/>
+        <v>10</v>
+      </c>
+      <c r="M24">
+        <f t="shared" si="6"/>
         <v>3</v>
       </c>
-      <c r="L24">
-        <f t="shared" si="3"/>
+      <c r="N24">
+        <f t="shared" si="6"/>
         <v>4</v>
       </c>
-      <c r="M24">
-        <f t="shared" si="3"/>
-        <v>10</v>
-      </c>
-      <c r="N24">
-        <f t="shared" si="3"/>
+      <c r="O24">
+        <f t="shared" si="6"/>
+        <v>10</v>
+      </c>
+      <c r="P24">
+        <f t="shared" si="6"/>
         <v>110</v>
       </c>
-      <c r="O24">
-        <f t="shared" si="3"/>
+      <c r="Q24">
+        <f t="shared" si="6"/>
         <v>100</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="4"/>
-      <c r="I25" s="4"/>
-    </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="K25" s="4"/>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="4">
         <v>45621</v>
       </c>
@@ -1927,26 +2019,20 @@
         <v>5</v>
       </c>
       <c r="D26">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E26">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="F26">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="G26">
-        <v>10</v>
-      </c>
-      <c r="I26" s="4">
+        <v>15</v>
+      </c>
+      <c r="K26" s="4">
         <v>45621</v>
       </c>
-      <c r="J26">
-        <v>0</v>
-      </c>
-      <c r="K26">
-        <v>0</v>
-      </c>
       <c r="L26">
         <v>0</v>
       </c>
@@ -1954,13 +2040,19 @@
         <v>0</v>
       </c>
       <c r="N26">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="O26">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="P26">
+        <v>20</v>
+      </c>
+      <c r="Q26">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A27" s="4">
         <v>45622</v>
       </c>
@@ -1971,40 +2063,40 @@
         <v>5</v>
       </c>
       <c r="D27">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E27">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="F27">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="G27">
-        <v>15</v>
-      </c>
-      <c r="I27" s="4">
+        <v>25</v>
+      </c>
+      <c r="K27" s="4">
         <v>45622</v>
       </c>
-      <c r="J27">
-        <v>0</v>
-      </c>
-      <c r="K27">
+      <c r="L27">
+        <v>0</v>
+      </c>
+      <c r="M27">
         <v>3</v>
       </c>
-      <c r="L27">
+      <c r="N27">
         <v>4</v>
       </c>
-      <c r="M27">
-        <v>0</v>
-      </c>
-      <c r="N27">
-        <v>20</v>
-      </c>
       <c r="O27">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="P27">
+        <v>20</v>
+      </c>
+      <c r="Q27">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="4">
         <v>45623</v>
       </c>
@@ -2015,40 +2107,40 @@
         <v>20</v>
       </c>
       <c r="D28">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E28">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="F28">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G28">
-        <v>15</v>
-      </c>
-      <c r="I28" s="4">
+        <v>20</v>
+      </c>
+      <c r="K28" s="4">
         <v>45623</v>
       </c>
-      <c r="J28">
-        <v>5</v>
-      </c>
-      <c r="K28">
-        <v>0</v>
-      </c>
       <c r="L28">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="M28">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="N28">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="O28">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+      <c r="P28">
+        <v>25</v>
+      </c>
+      <c r="Q28">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="4">
         <v>45624</v>
       </c>
@@ -2062,23 +2154,17 @@
         <v>10</v>
       </c>
       <c r="E29">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="F29">
         <v>10</v>
       </c>
       <c r="G29">
-        <v>25</v>
-      </c>
-      <c r="I29" s="4">
+        <v>20</v>
+      </c>
+      <c r="K29" s="4">
         <v>45624</v>
       </c>
-      <c r="J29">
-        <v>0</v>
-      </c>
-      <c r="K29">
-        <v>0</v>
-      </c>
       <c r="L29">
         <v>0</v>
       </c>
@@ -2086,13 +2172,19 @@
         <v>0</v>
       </c>
       <c r="N29">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="O29">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="P29">
+        <v>20</v>
+      </c>
+      <c r="Q29">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A30" s="4">
         <v>45625</v>
       </c>
@@ -2106,37 +2198,37 @@
         <v>15</v>
       </c>
       <c r="E30">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="F30">
         <v>15</v>
       </c>
       <c r="G30">
-        <v>20</v>
-      </c>
-      <c r="I30" s="4">
+        <v>5</v>
+      </c>
+      <c r="K30" s="4">
         <v>45625</v>
       </c>
-      <c r="J30">
-        <v>5</v>
-      </c>
-      <c r="K30">
-        <v>0</v>
-      </c>
       <c r="L30">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="M30">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="N30">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="O30">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+      <c r="P30">
+        <v>25</v>
+      </c>
+      <c r="Q30">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" s="4" t="s">
         <v>85</v>
       </c>
@@ -2145,47 +2237,47 @@
         <v>80</v>
       </c>
       <c r="C31">
-        <f t="shared" ref="C31:O31" si="4">SUM(C26:C30)</f>
+        <f t="shared" ref="C31:Q31" si="8">SUM(C26:C30)</f>
         <v>55</v>
       </c>
       <c r="D31">
-        <f t="shared" si="4"/>
+        <f t="shared" ref="D31:E31" si="9">SUM(D26:D30)</f>
+        <v>85</v>
+      </c>
+      <c r="E31">
+        <f t="shared" si="9"/>
+        <v>85</v>
+      </c>
+      <c r="F31">
+        <f t="shared" si="8"/>
         <v>80</v>
       </c>
-      <c r="E31">
-        <f t="shared" si="4"/>
+      <c r="G31">
+        <f t="shared" si="8"/>
         <v>85</v>
       </c>
-      <c r="F31">
-        <f t="shared" si="4"/>
-        <v>85</v>
-      </c>
-      <c r="G31">
-        <f t="shared" si="4"/>
-        <v>85</v>
-      </c>
-      <c r="J31">
-        <f t="shared" si="4"/>
-        <v>10</v>
-      </c>
-      <c r="K31">
-        <f t="shared" si="4"/>
+      <c r="L31">
+        <f t="shared" si="8"/>
+        <v>10</v>
+      </c>
+      <c r="M31">
+        <f t="shared" si="8"/>
         <v>3</v>
       </c>
-      <c r="L31">
-        <f t="shared" si="4"/>
+      <c r="N31">
+        <f t="shared" si="8"/>
         <v>4</v>
       </c>
-      <c r="M31">
-        <f t="shared" si="4"/>
-        <v>10</v>
-      </c>
-      <c r="N31">
-        <f t="shared" si="4"/>
+      <c r="O31">
+        <f t="shared" si="8"/>
+        <v>10</v>
+      </c>
+      <c r="P31">
+        <f t="shared" si="8"/>
         <v>110</v>
       </c>
-      <c r="O31">
-        <f t="shared" si="4"/>
+      <c r="Q31">
+        <f t="shared" si="8"/>
         <v>100</v>
       </c>
     </row>

--- a/DB設計.xlsx
+++ b/DB設計.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WangLeona\github\program\BusinessApplication\BusinessApplication\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5315AD4-25A5-4395-BA01-0AA50FD96339}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71A081A7-0931-4D64-9EC3-8DD43B1A8F66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5400" yWindow="3396" windowWidth="9264" windowHeight="8964" firstSheet="1" activeTab="9" xr2:uid="{97E6F3C6-D403-439F-B3B8-E1F91F15234B}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="1" activeTab="9" xr2:uid="{97E6F3C6-D403-439F-B3B8-E1F91F15234B}"/>
   </bookViews>
   <sheets>
     <sheet name="Product" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="103">
   <si>
     <t>productName</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -427,6 +427,26 @@
   </si>
   <si>
     <t>一三</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>261營業日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1 7 8 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9 0.5*3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9+1.5=10.5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">LT=2 dbar=k </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -938,10 +958,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B04B57A8-7201-4D6C-8EE8-1D3A80C049A1}">
-  <dimension ref="A1:W31"/>
+  <dimension ref="A1:W42"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A43" sqref="A43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -2281,6 +2301,81 @@
         <v>100</v>
       </c>
     </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="B33">
+        <f>SUM(B3,B10,B17,B24,B31)</f>
+        <v>295</v>
+      </c>
+      <c r="C33">
+        <f t="shared" ref="C33:G33" si="10">SUM(C3,C10,C17,C24,C31)</f>
+        <v>240</v>
+      </c>
+      <c r="D33">
+        <f t="shared" si="10"/>
+        <v>370</v>
+      </c>
+      <c r="E33">
+        <f t="shared" si="10"/>
+        <v>345</v>
+      </c>
+      <c r="F33">
+        <f t="shared" si="10"/>
+        <v>350</v>
+      </c>
+      <c r="G33">
+        <f t="shared" si="10"/>
+        <v>345</v>
+      </c>
+      <c r="L33">
+        <f>SUM(L3,L10,L17,L24,L31)</f>
+        <v>45</v>
+      </c>
+      <c r="M33">
+        <f t="shared" ref="M33:Q33" si="11">SUM(M3,M10,M17,M24,M31)</f>
+        <v>12</v>
+      </c>
+      <c r="N33">
+        <f t="shared" si="11"/>
+        <v>16</v>
+      </c>
+      <c r="O33">
+        <f t="shared" si="11"/>
+        <v>45</v>
+      </c>
+      <c r="P33">
+        <f t="shared" si="11"/>
+        <v>465</v>
+      </c>
+      <c r="Q33">
+        <f t="shared" si="11"/>
+        <v>400</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="B36" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="H37" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="E38" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="E39" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>102</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2293,7 +2388,7 @@
   <dimension ref="A1:I12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>

--- a/DB設計.xlsx
+++ b/DB設計.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WangLeona\github\program\BusinessApplication\BusinessApplication\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71A081A7-0931-4D64-9EC3-8DD43B1A8F66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2AC9E70-C6CD-4607-85CB-6986B4F5AA6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="1" activeTab="9" xr2:uid="{97E6F3C6-D403-439F-B3B8-E1F91F15234B}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="1" activeTab="10" xr2:uid="{97E6F3C6-D403-439F-B3B8-E1F91F15234B}"/>
   </bookViews>
   <sheets>
     <sheet name="Product" sheetId="1" r:id="rId1"/>
@@ -23,6 +23,7 @@
     <sheet name="Order" sheetId="8" r:id="rId8"/>
     <sheet name="OrderDetail" sheetId="9" r:id="rId9"/>
     <sheet name="模擬數據" sheetId="10" r:id="rId10"/>
+    <sheet name="工作表1" sheetId="11" r:id="rId11"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -960,7 +961,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B04B57A8-7201-4D6C-8EE8-1D3A80C049A1}">
   <dimension ref="A1:W42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A43" sqref="A43"/>
     </sheetView>
   </sheetViews>
@@ -2374,6 +2375,34 @@
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>102</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54C396D0-4604-44A0-8D5A-A64D439A0F6A}">
+  <dimension ref="A1:C1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1">
+        <v>45</v>
+      </c>
+      <c r="B1">
+        <v>45</v>
+      </c>
+      <c r="C1">
+        <v>45</v>
       </c>
     </row>
   </sheetData>
